--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.3_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.3_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2819721384249597</v>
+        <v>0.3118634427727858</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2819721384249597, 'ngram_match_score': 0.08417659076403987, 'weighted_ngram_match_score': 0.09386263017643608, 'syntax_match_score': 0.6237623762376238, 'dataflow_match_score': 0.32608695652173914}</t>
+          <t>{'codebleu': 0.31186344277278577, 'ngram_match_score': 0.08417659076403987, 'weighted_ngram_match_score': 0.09386263017643608, 'syntax_match_score': 0.6237623762376238, 'dataflow_match_score': 0.44565217391304346}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
